--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Efnb2-Rhbdl2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Efnb2-Rhbdl2.xlsx
@@ -534,34 +534,34 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.0563225123984</v>
+        <v>38.969508</v>
       </c>
       <c r="H2">
-        <v>38.0563225123984</v>
+        <v>116.908524</v>
       </c>
       <c r="I2">
-        <v>0.6901993009273303</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="J2">
-        <v>0.6901993009273303</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.75645819587331</v>
+        <v>1.825757333333333</v>
       </c>
       <c r="N2">
-        <v>1.75645819587331</v>
+        <v>5.477272</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>66.84433958170014</v>
+        <v>71.148865007392</v>
       </c>
       <c r="R2">
-        <v>66.84433958170014</v>
+        <v>640.3397850665281</v>
       </c>
       <c r="S2">
-        <v>0.6901993009273303</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="T2">
-        <v>0.6901993009273303</v>
+        <v>0.688733638790647</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,34 +596,34 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.677459575428619</v>
+        <v>9.685730333333334</v>
       </c>
       <c r="H3">
-        <v>9.677459575428619</v>
+        <v>29.057191</v>
       </c>
       <c r="I3">
-        <v>0.1755129080466787</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="J3">
-        <v>0.1755129080466787</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.75645819587331</v>
+        <v>1.825757333333333</v>
       </c>
       <c r="N3">
-        <v>1.75645819587331</v>
+        <v>5.477272</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -632,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>16.99805318649424</v>
+        <v>17.68379318477245</v>
       </c>
       <c r="R3">
-        <v>16.99805318649424</v>
+        <v>159.154138662952</v>
       </c>
       <c r="S3">
-        <v>0.1755129080466787</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="T3">
-        <v>0.1755129080466787</v>
+        <v>0.1711822560557247</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,34 +658,34 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.559564399262086</v>
+        <v>0.6067633333333333</v>
       </c>
       <c r="H4">
-        <v>0.559564399262086</v>
+        <v>1.82029</v>
       </c>
       <c r="I4">
-        <v>0.01014840456716986</v>
+        <v>0.01072372580252768</v>
       </c>
       <c r="J4">
-        <v>0.01014840456716986</v>
+        <v>0.01072372580252768</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.75645819587331</v>
+        <v>1.825757333333333</v>
       </c>
       <c r="N4">
-        <v>1.75645819587331</v>
+        <v>5.477272</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.9828514752028161</v>
+        <v>1.107802605431111</v>
       </c>
       <c r="R4">
-        <v>0.9828514752028161</v>
+        <v>9.970223448880001</v>
       </c>
       <c r="S4">
-        <v>0.01014840456716986</v>
+        <v>0.01072372580252768</v>
       </c>
       <c r="T4">
-        <v>0.01014840456716986</v>
+        <v>0.01072372580252768</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,34 +720,34 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.395774929194067</v>
+        <v>0.4787493333333333</v>
       </c>
       <c r="H5">
-        <v>0.395774929194067</v>
+        <v>1.436248</v>
       </c>
       <c r="I5">
-        <v>0.007177876405827559</v>
+        <v>0.008461250535040448</v>
       </c>
       <c r="J5">
-        <v>0.007177876405827559</v>
+        <v>0.008461250535040449</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.75645819587331</v>
+        <v>1.825757333333333</v>
       </c>
       <c r="N5">
-        <v>1.75645819587331</v>
+        <v>5.477272</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -756,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.6951621181040979</v>
+        <v>0.8740801061617778</v>
       </c>
       <c r="R5">
-        <v>0.6951621181040979</v>
+        <v>7.866720955456</v>
       </c>
       <c r="S5">
-        <v>0.007177876405827559</v>
+        <v>0.008461250535040448</v>
       </c>
       <c r="T5">
-        <v>0.007177876405827559</v>
+        <v>0.008461250535040449</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,34 +782,34 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.44904296792746</v>
+        <v>6.840640999999999</v>
       </c>
       <c r="H6">
-        <v>6.44904296792746</v>
+        <v>20.521923</v>
       </c>
       <c r="I6">
-        <v>0.1169615100529935</v>
+        <v>0.1208991288160602</v>
       </c>
       <c r="J6">
-        <v>0.1169615100529935</v>
+        <v>0.1208991288160602</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.75645819587331</v>
+        <v>1.825757333333333</v>
       </c>
       <c r="N6">
-        <v>1.75645819587331</v>
+        <v>5.477272</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>11.32747437655532</v>
+        <v>12.48935047045067</v>
       </c>
       <c r="R6">
-        <v>11.32747437655532</v>
+        <v>112.404154234056</v>
       </c>
       <c r="S6">
-        <v>0.1169615100529935</v>
+        <v>0.1208991288160602</v>
       </c>
       <c r="T6">
-        <v>0.1169615100529935</v>
+        <v>0.1208991288160602</v>
       </c>
     </row>
   </sheetData>
